--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b3f45ed4c7ea448/Belgeler/ders notlarım v2/ANN/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b3f45ed4c7ea448/Belgeler/ders notlarım v2/ANN/artificial-neural-networks-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D3405A0-07C1-4DCB-B6D2-5A4777A72A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB7D95F-7A34-4D33-9F8C-B4AB839728E3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1D3405A0-07C1-4DCB-B6D2-5A4777A72A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F76F3B-E4E3-4FAD-8A49-4FE74F9E255C}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{309599BA-7296-420F-89FB-E7F3804C9C43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{309599BA-7296-420F-89FB-E7F3804C9C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46020DB-3650-44D9-93E2-D72C3AA006E5}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
